--- a/Running projects/Food Court North Walk/320 invoice for installation of HVAC material at food courts.xlsx
+++ b/Running projects/Food Court North Walk/320 invoice for installation of HVAC material at food courts.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF1376A-B4E6-4633-8868-36D2E552B946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA47CEB-4842-4181-884B-479CBF45452B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>S. #</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Installation of HVAC Material for Food Court - The North Walk Shopping Mall</t>
+  </si>
+  <si>
+    <t>FINAL INSTALLED</t>
   </si>
 </sst>
 </file>
@@ -186,12 +189,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.00000%"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.00000%"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +292,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -357,16 +369,16 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -381,7 +393,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -394,25 +406,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -430,17 +442,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -448,6 +460,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -492,8 +507,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>680085</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>116898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -554,7 +569,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>285912</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>220539</xdr:rowOff>
+      <xdr:rowOff>217941</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -826,7 +841,7 @@
       <sheetData sheetId="0">
         <row r="36">
           <cell r="F36">
-            <v>5455410</v>
+            <v>2874349</v>
           </cell>
         </row>
       </sheetData>
@@ -1125,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1187,24 +1202,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+    </row>
     <row r="12" spans="1:6" s="8" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:6" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="1:6" s="8" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
@@ -1215,14 +1239,14 @@
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
     </row>
     <row r="16" spans="1:6" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
@@ -1664,7 +1688,7 @@
       </c>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29">
         <v>17</v>
       </c>
@@ -1686,7 +1710,7 @@
       </c>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29">
         <v>18</v>
       </c>
@@ -1731,39 +1755,39 @@
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="40"/>
       <c r="F40" s="17">
         <f>SUM(F18:F39)</f>
         <v>1085480</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="40"/>
       <c r="F41" s="17">
         <f>F40*13%</f>
         <v>141112.4</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
       <c r="F42" s="17">
         <f>F41+F40</f>
         <v>1226592.3999999999</v>
@@ -1782,7 +1806,7 @@
       <c r="G44" s="3"/>
       <c r="I44" s="10">
         <f>F42+[1]HVAC!$F$36</f>
-        <v>6682002.4000000004</v>
+        <v>4100941.4</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -1842,7 +1866,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A11:F11"/>
     <mergeCell ref="A42:E42"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
@@ -1852,7 +1877,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/Running projects/Food Court North Walk/320 invoice for installation of HVAC material at food courts.xlsx
+++ b/Running projects/Food Court North Walk/320 invoice for installation of HVAC material at food courts.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA47CEB-4842-4181-884B-479CBF45452B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DCC1AB-C5E9-4CB4-9D8B-9996499017C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1125" yWindow="1125" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HVAC" sheetId="1" r:id="rId1"/>
@@ -15,15 +15,15 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$F$42</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$15:$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$F$44</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$17:$19</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>S. #</t>
   </si>
@@ -172,16 +172,13 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>SRB 13%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grand Total </t>
   </si>
   <si>
     <t>Installation of HVAC Material for Food Court - The North Walk Shopping Mall</t>
   </si>
   <si>
-    <t>FINAL INSTALLED</t>
+    <t>SST 15%</t>
   </si>
 </sst>
 </file>
@@ -508,7 +505,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>680085</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>116898</xdr:rowOff>
+      <xdr:rowOff>186171</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -562,14 +559,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>259082</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>542925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>285912</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>217941</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>217942</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -623,13 +620,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>458471</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -726,13 +723,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>923924</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>192232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -778,14 +775,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1117867</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>42585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>709936</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>183928</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>183927</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -845,7 +842,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1138,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:J68"/>
+  <dimension ref="A5:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1162,93 +1159,75 @@
     <row r="5" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="28" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="34">
-        <v>45187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="F10" s="34">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="28" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F11" s="25">
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="28" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F12" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-    </row>
-    <row r="12" spans="1:6" s="8" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41" t="s">
+    <row r="13" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+    </row>
+    <row r="14" spans="1:6" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-    </row>
-    <row r="13" spans="1:6" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-    </row>
-    <row r="14" spans="1:6" s="8" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="42" t="s">
-        <v>51</v>
-      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+    </row>
+    <row r="15" spans="1:6" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="42"/>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
     </row>
-    <row r="16" spans="1:6" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" s="8" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1256,584 +1235,588 @@
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:10" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+    </row>
+    <row r="18" spans="1:10" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F19" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29">
+    <row r="20" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29">
         <v>1</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B20" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C20" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D20" s="29">
         <v>2</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E20" s="31">
         <v>25000</v>
       </c>
-      <c r="F18" s="32">
-        <f>E18*D18</f>
+      <c r="F20" s="32">
+        <f>E20*D20</f>
         <v>50000</v>
       </c>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.3">
-      <c r="A19" s="29">
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.3">
+      <c r="A21" s="29">
         <v>2</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B21" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C21" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D21" s="29">
         <v>4560</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E21" s="31">
         <v>60</v>
       </c>
-      <c r="F19" s="32">
-        <f t="shared" ref="F19:F39" si="0">E19*D19</f>
+      <c r="F21" s="32">
+        <f t="shared" ref="F21:F41" si="0">E21*D21</f>
         <v>273600</v>
       </c>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A20" s="29">
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A22" s="29">
         <v>3</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B22" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C22" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D22" s="33">
         <v>1041</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E22" s="31">
         <v>60</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F22" s="32">
         <f t="shared" si="0"/>
         <v>62460</v>
       </c>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29">
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29">
         <v>4</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B23" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C23" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D23" s="29">
         <v>262</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E23" s="31">
         <v>30</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F23" s="32">
         <f t="shared" si="0"/>
         <v>7860</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.3">
-      <c r="A22" s="29">
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.3">
+      <c r="A24" s="29">
         <v>5</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B24" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C24" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D24" s="29">
         <v>2880</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E24" s="31">
         <v>75</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F24" s="32">
         <f t="shared" si="0"/>
         <v>216000</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A23" s="29">
+      <c r="G24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A25" s="29">
         <v>6</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B25" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C25" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D25" s="29">
         <v>3626</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E25" s="31">
         <v>60</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F25" s="32">
         <f t="shared" si="0"/>
         <v>217560</v>
       </c>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="36">
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="36">
         <v>7</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B26" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C26" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D26" s="36">
         <v>1</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E26" s="35">
         <v>150000</v>
       </c>
-      <c r="F24" s="35">
-        <f>E24*D24</f>
+      <c r="F26" s="35">
+        <f>E26*D26</f>
         <v>150000</v>
       </c>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A25" s="29">
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A27" s="29">
         <v>8</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B27" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32">
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30" t="s">
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C28" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D28" s="29">
         <v>4</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E28" s="31">
         <v>2000</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F28" s="32">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30" t="s">
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
+      <c r="B29" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C29" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D29" s="29">
         <v>5</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E29" s="31">
         <v>2000</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F29" s="32">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="29">
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="29">
         <v>8</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B30" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C30" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D30" s="29">
         <v>20</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E30" s="31">
         <v>1000</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F30" s="32">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="29">
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="29">
         <v>9</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B31" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C31" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D31" s="29">
         <v>2</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E31" s="31">
         <v>1000</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F31" s="32">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="29">
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="29">
         <v>10</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B32" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C32" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D32" s="29">
         <v>2</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E32" s="31">
         <v>700</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F32" s="32">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A31" s="29">
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+      <c r="A33" s="29">
         <v>11</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B33" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C33" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D33" s="29">
         <v>36</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E33" s="31">
         <v>100</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F33" s="32">
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="29">
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="29">
         <v>12</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B34" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C34" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D34" s="29">
         <v>2</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E34" s="31">
         <v>1000</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F34" s="32">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="29">
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="29">
         <v>13</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B35" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C35" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D35" s="29">
         <v>2</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E35" s="31">
         <v>1500</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F35" s="32">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="29">
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="29">
         <v>14</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B36" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C36" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D36" s="29">
         <v>2</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E36" s="31">
         <v>1500</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F36" s="32">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29">
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29">
         <v>15</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B37" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C37" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D37" s="29">
         <v>1</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E37" s="31">
         <v>15000</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F37" s="32">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="29">
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="29">
         <v>16</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B38" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C38" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D38" s="29">
         <v>1</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E38" s="31">
         <v>10000</v>
       </c>
-      <c r="F36" s="32">
+      <c r="F38" s="32">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29">
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29">
         <v>17</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B39" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C39" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D39" s="29">
         <v>0</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E39" s="31">
         <v>5000</v>
       </c>
-      <c r="F37" s="32">
+      <c r="F39" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29">
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="29">
         <v>18</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B40" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C40" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D40" s="29">
         <v>1</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E40" s="31">
         <v>20000</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F40" s="32">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="29">
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="29">
         <v>19</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B41" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C41" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D41" s="29">
         <v>2</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E41" s="31">
         <v>5000</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F41" s="32">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="17">
-        <f>SUM(F18:F39)</f>
-        <v>1085480</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="17">
-        <f>F40*13%</f>
-        <v>141112.4</v>
-      </c>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="39"/>
       <c r="E42" s="40"/>
       <c r="F42" s="17">
-        <f>F41+F40</f>
-        <v>1226592.3999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+        <f>SUM(F20:F41)</f>
+        <v>1085480</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="17">
+        <f>F42*15%</f>
+        <v>162822</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="17">
+        <f>F43+F42</f>
+        <v>1248302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="I43" s="10"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="G44" s="3"/>
-      <c r="I44" s="10">
-        <f>F42+[1]HVAC!$F$36</f>
-        <v>4100941.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D48" s="17"/>
-    </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E62" s="15"/>
-      <c r="F62" s="16">
-        <f t="shared" ref="F62:F68" si="1">E62*D62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E63" s="15"/>
-      <c r="F63" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="5"/>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="G46" s="3"/>
+      <c r="I46" s="10">
+        <f>F44+[1]HVAC!$F$36</f>
+        <v>4122651</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D50" s="17"/>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E64" s="15"/>
       <c r="F64" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F64:F70" si="1">E64*D64</f>
         <v>0</v>
       </c>
     </row>
@@ -1865,15 +1848,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E69" s="15"/>
+      <c r="F69" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E70" s="15"/>
+      <c r="F70" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A43:E43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.25" header="0.3" footer="0.3"/>
